--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1832231.982278199</v>
+        <v>1830344.400761798</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.420162637424</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>75.51862566593917</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>87.87673964201173</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>10.70611463921576</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>288.4186882821372</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.145154844354106</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.74944290141737</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.161195631909</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>12.78917898910502</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>161.4046520073175</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>94.94425294447187</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>58.70811713027407</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>109.6778012403077</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>112.4635491636344</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>73.6025219366589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>131.2432724252415</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>85.90203508195441</v>
+        <v>143.3158222056516</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>89.60979044269277</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3004,19 +3004,19 @@
         <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>29.53698649363209</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
         <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2565.83896148211</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1981.014288776631</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>1117.513150920515</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124028</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>188.3638897300096</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>717.3147269951052</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>490.0065396637069</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223454</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>763.2387982879728</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>345.2749901861597</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2691.951964912814</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2515.774477226984</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2297.139810199047</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2043.378024837139</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1712.315137493568</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1359.546482223454</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.546482223454</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1359.546482223454</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X7" t="n">
-        <v>470.7225141620388</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y7" t="n">
-        <v>470.7225141620388</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2459.129294849817</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,46 +5024,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>260.2520934878792</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>260.2520934878792</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>110.1354540755434</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>110.1354540755434</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5218,31 +5218,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1335.881268530309</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1112.095853319815</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>822.9672145333731</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>568.2827263274862</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W13" t="n">
-        <v>278.8655562905255</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>441.9005583181189</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.0436439308535</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0436439308535</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185178</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185178</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1291.937881317231</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1291.937881317231</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1037.253393111344</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>747.8362230743836</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X16" t="n">
-        <v>747.8362230743836</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.0436439308535</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5598,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>506.0324822735073</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5677,7 +5677,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1185.396715863723</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>930.7122276578363</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>641.2950576208757</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>413.3055067228584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.3055067228584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,10 +5738,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>656.9717466008786</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>428.9821957028613</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>428.9821957028613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,16 +6069,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>485.404702608941</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>732.169830515405</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>527.0940094559514</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>380.2040619580411</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383446</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>503.0396462065431</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="C28" t="n">
-        <v>334.1034632786362</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="D28" t="n">
-        <v>183.9868238663004</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W28" t="n">
-        <v>731.0291971045605</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X28" t="n">
-        <v>503.0396462065431</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="Y28" t="n">
-        <v>503.0396462065431</v>
+        <v>241.9805482336714</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.2144416160929</v>
+        <v>581.9257756783074</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749889</v>
+        <v>581.9257756783074</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440239</v>
+        <v>487.5700015473424</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>395.4177732463201</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>304.2886910297805</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
@@ -6628,43 +6628,43 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1623.942368323874</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1425.018745399358</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.362440643768</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>1019.133755027121</v>
+        <v>872.8450890893357</v>
       </c>
       <c r="Y31" t="n">
-        <v>854.1020411649619</v>
+        <v>707.8133752271764</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,34 +6835,34 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010315</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7005,37 +7005,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504514</v>
@@ -7090,13 +7090,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649692</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,22 +7157,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514082</v>
@@ -7181,22 +7181,22 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7406,7 +7406,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
@@ -7415,13 +7415,13 @@
         <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7445,7 +7445,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7476,25 +7476,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083195</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504503</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
@@ -7597,7 +7597,7 @@
         <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,16 +7786,16 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010319</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776758</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>132.6318690338262</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>36.51615797628576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>126.6033081139174</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>227.8148812063169</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>57.56901985832013</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>173.7738032349429</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>212.9204763999321</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>35.25029603813604</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,13 +24601,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>60.53192756461476</v>
+        <v>3.118140440917611</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>22.43377402737801</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>140.969412266848</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407087</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>929607.6849577212</v>
+        <v>929607.6849577213</v>
       </c>
     </row>
     <row r="12">
@@ -26314,16 +26314,16 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721359</v>
@@ -26332,16 +26332,16 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
-        <v>508527.6716815879</v>
+        <v>508527.671681588</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="M2" t="n">
         <v>513151.1061651764</v>
@@ -26350,10 +26350,10 @@
         <v>513151.1061651764</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651763</v>
+        <v>513151.1061651764</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651765</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26430,7 +26430,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,25 +26439,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563562</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="M4" t="n">
+        <v>37464.45686275956</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="M4" t="n">
-        <v>37464.4568627596</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275965</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639995</v>
+        <v>-316450.8093639996</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505447</v>
+        <v>273517.0698505454</v>
       </c>
       <c r="D6" t="n">
         <v>273517.0698505453</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749162</v>
+        <v>-143504.1665008882</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019803</v>
+        <v>381655.869976008</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019801</v>
+        <v>381655.869976008</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019802</v>
+        <v>381655.869976008</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019803</v>
+        <v>381655.869976008</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093872</v>
+        <v>205232.650783415</v>
       </c>
       <c r="K6" t="n">
-        <v>334526.5657128838</v>
+        <v>334508.0719749496</v>
       </c>
       <c r="L6" t="n">
-        <v>367628.6366815247</v>
+        <v>367628.6366815246</v>
       </c>
       <c r="M6" t="n">
-        <v>243170.5282485544</v>
+        <v>243170.5282485543</v>
       </c>
       <c r="N6" t="n">
         <v>377971.5434823914</v>
       </c>
       <c r="O6" t="n">
-        <v>377971.5434823913</v>
+        <v>377971.5434823914</v>
       </c>
       <c r="P6" t="n">
-        <v>333808.9381795458</v>
+        <v>333808.938179546</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964062</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26756,22 +26756,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226.3136790260566</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>140.9296946917186</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>57.54430838091952</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>18.41663531569855</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>35.50408448221992</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>49.33324773045761</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.08253728051993</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>226.7961607607226</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.0767430241446</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>136.7057146380968</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36999,10 +36999,10 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337001</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37783,7 +37783,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
